--- a/biology/Botanique/Chrysomeridaceae/Chrysomeridaceae.xlsx
+++ b/biology/Botanique/Chrysomeridaceae/Chrysomeridaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chrysomeridaceae sont une famille d'algues de l'embranchement des Ochrophyta, de la classe des Chrysomeridophyceae et de l'ordre des Chrysomeridales.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Chrysomeris, dérivé du grec χρυσός / khrusos, « couleur or », et μεριστός / meristós, « divisé », en référence à la présence d'un gros chloroplaste jaune doré chez les jeunes cellules et au fait que les filaments de cette algue, d'abord unisériés sur un axe principal, se divisent et deviennent plurisériés[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Chrysomeris, dérivé du grec χρυσός / khrusos, « couleur or », et μεριστός / meristós, « divisé », en référence à la présence d'un gros chloroplaste jaune doré chez les jeunes cellules et au fait que les filaments de cette algue, d'abord unisériés sur un axe principal, se divisent et deviennent plurisériés.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (28 janvier 2022)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (28 janvier 2022) :
 Antarctosaccion Delépine, 1970
 Chrysomeris N.Carter, 1937
 Chrysowaernella Gayral &amp; Lepailleur, 1977
 Rhamnochrysis R.T.Wilce &amp; Markey, 1974
-Selon World Register of Marine Species                               (28 janvier 2022)[2] :
+Selon World Register of Marine Species                               (28 janvier 2022) :
 Chrysomeris N.Carter, 1937
 Chrysowaernella Gayral &amp; Lepailleur, 1977
 Giraudyopsis P.[J.L.] Dangeard, 1965</t>
